--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD209F5-699E-4FF2-8C02-33B6FC2257C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B20A0F-E4C9-4E13-9057-9C062AFF511A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -790,29 +790,29 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="3"/>
+    <col min="3" max="3" width="27.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
@@ -884,7 +884,7 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
@@ -912,7 +912,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="18"/>
@@ -928,7 +928,7 @@
       <c r="M6" s="26"/>
       <c r="N6" s="15"/>
     </row>
-    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="19"/>
@@ -964,7 +964,7 @@
       </c>
       <c r="N7" s="15"/>
     </row>
-    <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -983,7 +983,9 @@
       <c r="F8" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="11">
+        <v>9.1</v>
+      </c>
       <c r="H8" s="11">
         <v>5</v>
       </c>
@@ -994,10 +996,10 @@
       <c r="M8" s="13"/>
       <c r="N8" s="12">
         <f>SUM(D8:M8)</f>
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1016,7 +1018,9 @@
       <c r="F9" s="11">
         <v>5</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11">
+        <v>16.8</v>
+      </c>
       <c r="H9" s="11">
         <v>5</v>
       </c>
@@ -1027,10 +1031,10 @@
       <c r="M9" s="13"/>
       <c r="N9" s="12">
         <f t="shared" ref="N9:N26" si="0">SUM(D9:M9)</f>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1049,7 +1053,9 @@
       <c r="F10" s="11">
         <v>1.8</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="11">
+        <v>14.7</v>
+      </c>
       <c r="H10" s="11">
         <v>5</v>
       </c>
@@ -1060,10 +1066,10 @@
       <c r="M10" s="13"/>
       <c r="N10" s="12">
         <f t="shared" si="0"/>
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1082,7 +1088,9 @@
       <c r="F11" s="11">
         <v>5.55</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="11">
+        <v>12.15</v>
+      </c>
       <c r="H11" s="11">
         <v>5</v>
       </c>
@@ -1093,10 +1101,10 @@
       <c r="M11" s="13"/>
       <c r="N11" s="12">
         <f t="shared" si="0"/>
-        <v>18.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>30.200000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -1115,7 +1123,9 @@
       <c r="F12" s="11">
         <v>1.5</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11">
+        <v>10</v>
+      </c>
       <c r="H12" s="11">
         <v>5</v>
       </c>
@@ -1126,10 +1136,10 @@
       <c r="M12" s="13"/>
       <c r="N12" s="12">
         <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -1148,7 +1158,9 @@
       <c r="F13" s="11">
         <v>1.9</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11">
+        <v>13.6</v>
+      </c>
       <c r="H13" s="11">
         <v>5</v>
       </c>
@@ -1159,10 +1171,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="12">
         <f t="shared" si="0"/>
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -1181,7 +1193,9 @@
       <c r="F14" s="11">
         <v>1.4</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="H14" s="11">
         <v>5</v>
       </c>
@@ -1192,10 +1206,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="12">
         <f t="shared" si="0"/>
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>23.200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1214,7 +1228,9 @@
       <c r="F15" s="11">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11">
+        <v>7</v>
+      </c>
       <c r="H15" s="11">
         <v>4.2</v>
       </c>
@@ -1225,10 +1241,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="12">
         <f t="shared" si="0"/>
-        <v>11.65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>18.649999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -1247,7 +1263,9 @@
       <c r="F16" s="11">
         <v>4</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="11">
+        <v>16.45</v>
+      </c>
       <c r="H16" s="11">
         <v>5</v>
       </c>
@@ -1258,10 +1276,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="12">
         <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>32.950000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -1280,7 +1298,9 @@
       <c r="F17" s="11">
         <v>3.65</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="11">
+        <v>17</v>
+      </c>
       <c r="H17" s="11">
         <v>5</v>
       </c>
@@ -1291,10 +1311,10 @@
       <c r="M17" s="13"/>
       <c r="N17" s="12">
         <f t="shared" si="0"/>
-        <v>15.65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>32.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -1313,7 +1333,9 @@
       <c r="F18" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="11">
+        <v>5.3</v>
+      </c>
       <c r="H18" s="11">
         <v>5</v>
       </c>
@@ -1324,10 +1346,10 @@
       <c r="M18" s="13"/>
       <c r="N18" s="12">
         <f t="shared" si="0"/>
-        <v>11.574999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>16.875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -1346,7 +1368,9 @@
       <c r="F19" s="11">
         <v>2.1</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="11">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="H19" s="11">
         <v>4.2</v>
       </c>
@@ -1357,10 +1381,10 @@
       <c r="M19" s="13"/>
       <c r="N19" s="12">
         <f t="shared" si="0"/>
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>22.599999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -1379,7 +1403,9 @@
       <c r="F20" s="11">
         <v>5.2</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="11">
+        <v>13.65</v>
+      </c>
       <c r="H20" s="11">
         <v>5</v>
       </c>
@@ -1390,10 +1416,10 @@
       <c r="M20" s="13"/>
       <c r="N20" s="12">
         <f t="shared" si="0"/>
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>33.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>14</v>
       </c>
@@ -1412,7 +1438,9 @@
       <c r="F21" s="11">
         <v>1.7</v>
       </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="11">
+        <v>11.35</v>
+      </c>
       <c r="H21" s="11">
         <v>5</v>
       </c>
@@ -1423,10 +1451,10 @@
       <c r="M21" s="13"/>
       <c r="N21" s="12">
         <f t="shared" si="0"/>
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>23.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -1445,7 +1473,9 @@
       <c r="F22" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="11">
+        <v>3.5</v>
+      </c>
       <c r="H22" s="11">
         <v>5</v>
       </c>
@@ -1456,10 +1486,10 @@
       <c r="M22" s="13"/>
       <c r="N22" s="12">
         <f t="shared" si="0"/>
-        <v>14.18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>16</v>
       </c>
@@ -1478,7 +1508,9 @@
       <c r="F23" s="11">
         <v>2.35</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="11">
+        <v>17.8</v>
+      </c>
       <c r="H23" s="11">
         <v>5</v>
       </c>
@@ -1489,10 +1521,10 @@
       <c r="M23" s="13"/>
       <c r="N23" s="12">
         <f t="shared" si="0"/>
-        <v>14.85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>32.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>17</v>
       </c>
@@ -1511,7 +1543,9 @@
       <c r="F24" s="11">
         <v>1.8</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="11">
+        <v>11.4</v>
+      </c>
       <c r="H24" s="11">
         <v>5</v>
       </c>
@@ -1522,10 +1556,10 @@
       <c r="M24" s="13"/>
       <c r="N24" s="12">
         <f t="shared" si="0"/>
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>18</v>
       </c>
@@ -1544,7 +1578,9 @@
       <c r="F25" s="11">
         <v>2.15</v>
       </c>
-      <c r="G25" s="11"/>
+      <c r="G25" s="11">
+        <v>3.3</v>
+      </c>
       <c r="H25" s="11">
         <v>5</v>
       </c>
@@ -1555,10 +1591,10 @@
       <c r="M25" s="13"/>
       <c r="N25" s="12">
         <f t="shared" si="0"/>
-        <v>7.7750000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>11.074999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -1577,7 +1613,9 @@
       <c r="F26" s="11">
         <v>1.55</v>
       </c>
-      <c r="G26" s="11"/>
+      <c r="G26" s="11">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="H26" s="11">
         <v>5</v>
       </c>
@@ -1588,10 +1626,10 @@
       <c r="M26" s="13"/>
       <c r="N26" s="12">
         <f t="shared" si="0"/>
-        <v>14.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1601,7 +1639,10 @@
         <f>AVERAGE(F8:F26)</f>
         <v>2.6736842105263152</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="5">
+        <f>AVERAGE(G8:G26)</f>
+        <v>11.047368421052633</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1610,7 +1651,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="5">
         <f>AVERAGE(N8:N26)</f>
-        <v>14.241052631578947</v>
+        <v>25.28842105263158</v>
       </c>
     </row>
   </sheetData>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B20A0F-E4C9-4E13-9057-9C062AFF511A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28E0D65-386E-439A-A7E9-3BB21CE53939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -790,7 +790,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,12 +991,14 @@
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="K8" s="11">
+        <v>3.65</v>
+      </c>
       <c r="L8" s="11"/>
       <c r="M8" s="13"/>
       <c r="N8" s="12">
         <f>SUM(D8:M8)</f>
-        <v>21.3</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1026,12 +1028,14 @@
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="11">
+        <v>7</v>
+      </c>
       <c r="L9" s="11"/>
       <c r="M9" s="13"/>
       <c r="N9" s="12">
         <f t="shared" ref="N9:N26" si="0">SUM(D9:M9)</f>
-        <v>36.299999999999997</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1061,12 +1065,14 @@
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="11">
+        <v>2.9</v>
+      </c>
       <c r="L10" s="11"/>
       <c r="M10" s="13"/>
       <c r="N10" s="12">
         <f t="shared" si="0"/>
-        <v>30.5</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1096,12 +1102,14 @@
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="11">
+        <v>5.8</v>
+      </c>
       <c r="L11" s="11"/>
       <c r="M11" s="13"/>
       <c r="N11" s="12">
         <f t="shared" si="0"/>
-        <v>30.200000000000003</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1131,12 +1139,14 @@
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="11">
+        <v>2.95</v>
+      </c>
       <c r="L12" s="11"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>26.45</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1166,12 +1176,14 @@
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="K13" s="11">
+        <v>4</v>
+      </c>
       <c r="L13" s="11"/>
       <c r="M13" s="13"/>
       <c r="N13" s="12">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1201,12 +1213,14 @@
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="K14" s="11">
+        <v>3.4</v>
+      </c>
       <c r="L14" s="11"/>
       <c r="M14" s="13"/>
       <c r="N14" s="12">
         <f t="shared" si="0"/>
-        <v>23.200000000000003</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1236,12 +1250,14 @@
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="K15" s="11">
+        <v>2.6</v>
+      </c>
       <c r="L15" s="11"/>
       <c r="M15" s="13"/>
       <c r="N15" s="12">
         <f t="shared" si="0"/>
-        <v>18.649999999999999</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1271,12 +1287,14 @@
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="11">
+        <v>2.0499999999999998</v>
+      </c>
       <c r="L16" s="11"/>
       <c r="M16" s="13"/>
       <c r="N16" s="12">
         <f t="shared" si="0"/>
-        <v>32.950000000000003</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1306,12 +1324,14 @@
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="11">
+        <v>5.3</v>
+      </c>
       <c r="L17" s="11"/>
       <c r="M17" s="13"/>
       <c r="N17" s="12">
         <f t="shared" si="0"/>
-        <v>32.65</v>
+        <v>37.949999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1341,12 +1361,14 @@
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="11">
+        <v>1</v>
+      </c>
       <c r="L18" s="11"/>
       <c r="M18" s="13"/>
       <c r="N18" s="12">
         <f t="shared" si="0"/>
-        <v>16.875</v>
+        <v>17.875</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1376,12 +1398,14 @@
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="11">
+        <v>2.75</v>
+      </c>
       <c r="L19" s="11"/>
       <c r="M19" s="13"/>
       <c r="N19" s="12">
         <f t="shared" si="0"/>
-        <v>22.599999999999998</v>
+        <v>25.349999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1411,12 +1435,14 @@
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="11">
+        <v>6.1</v>
+      </c>
       <c r="L20" s="11"/>
       <c r="M20" s="13"/>
       <c r="N20" s="12">
         <f t="shared" si="0"/>
-        <v>33.35</v>
+        <v>39.450000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1446,12 +1472,14 @@
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="11">
+        <v>3.5</v>
+      </c>
       <c r="L21" s="11"/>
       <c r="M21" s="13"/>
       <c r="N21" s="12">
         <f t="shared" si="0"/>
-        <v>23.05</v>
+        <v>26.55</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1481,12 +1509,14 @@
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="11">
+        <v>3.3</v>
+      </c>
       <c r="L22" s="11"/>
       <c r="M22" s="13"/>
       <c r="N22" s="12">
         <f t="shared" si="0"/>
-        <v>17.68</v>
+        <v>20.98</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1516,12 +1546,14 @@
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="11">
+        <v>6.5250000000000004</v>
+      </c>
       <c r="L23" s="11"/>
       <c r="M23" s="13"/>
       <c r="N23" s="12">
         <f t="shared" si="0"/>
-        <v>32.65</v>
+        <v>39.174999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1551,12 +1583,14 @@
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="11">
+        <v>1.4</v>
+      </c>
       <c r="L24" s="11"/>
       <c r="M24" s="13"/>
       <c r="N24" s="12">
         <f t="shared" si="0"/>
-        <v>23.2</v>
+        <v>24.599999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1586,7 +1620,9 @@
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
       <c r="L25" s="11"/>
       <c r="M25" s="13"/>
       <c r="N25" s="12">
@@ -1621,12 +1657,14 @@
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="11">
+        <v>2.0499999999999998</v>
+      </c>
       <c r="L26" s="11"/>
       <c r="M26" s="13"/>
       <c r="N26" s="12">
         <f t="shared" si="0"/>
-        <v>22.75</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1646,12 +1684,15 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="5">
+        <f>AVERAGE(K8:K26)</f>
+        <v>3.4881578947368417</v>
+      </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="5">
         <f>AVERAGE(N8:N26)</f>
-        <v>25.28842105263158</v>
+        <v>28.776578947368421</v>
       </c>
     </row>
   </sheetData>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28E0D65-386E-439A-A7E9-3BB21CE53939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5566D9F8-E211-41D6-9A52-AA74D91A3677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -198,6 +220,18 @@
   </si>
   <si>
     <t>LAB (5)</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Z-Score</t>
+  </si>
+  <si>
+    <t>GDP</t>
   </si>
 </sst>
 </file>
@@ -207,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -228,6 +262,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -264,68 +306,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -362,15 +342,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -384,24 +355,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -409,12 +371,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -423,64 +382,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,920 +726,1756 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="14" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+    </row>
+    <row r="4" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="17" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="15" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="9" t="s">
+      <c r="O5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+      <c r="E8" s="14">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G8" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="J8" s="14">
         <v>0</v>
       </c>
-      <c r="F8" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G8" s="11">
-        <v>9.1</v>
-      </c>
-      <c r="H8" s="11">
-        <v>5</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11">
+      <c r="K8" s="7">
         <v>3.65</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="12">
+      <c r="L8" s="7">
+        <v>5</v>
+      </c>
+      <c r="M8" s="17">
+        <v>5</v>
+      </c>
+      <c r="N8" s="18">
         <f>SUM(D8:M8)</f>
-        <v>24.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>42.449999999999996</v>
+      </c>
+      <c r="O8" s="18">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P8" s="18">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q8" s="18">
+        <f>(N8-O8)/P8</f>
+        <v>-0.51742483113156834</v>
+      </c>
+      <c r="R8" s="19" t="str" cm="1">
+        <f t="array" ref="R8">_xlfn.LET(
+ _xlpm.s, N8,
+ _xlpm.mean, O8,
+ _xlpm.sd, P8,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11">
-        <v>5</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="13">
+        <v>5</v>
+      </c>
+      <c r="E9" s="13">
         <v>4.5</v>
       </c>
-      <c r="F9" s="11">
-        <v>5</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F9" s="8">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8">
         <v>16.8</v>
       </c>
-      <c r="H9" s="11">
-        <v>5</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
+      <c r="I9" s="13">
+        <v>5</v>
+      </c>
+      <c r="J9" s="13">
+        <v>5</v>
+      </c>
+      <c r="K9" s="8">
         <v>7</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="12">
+      <c r="L9" s="8">
+        <v>20.8</v>
+      </c>
+      <c r="M9" s="10">
+        <v>5</v>
+      </c>
+      <c r="N9" s="9">
         <f t="shared" ref="N9:N26" si="0">SUM(D9:M9)</f>
-        <v>43.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="O9" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P9" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q9" s="9">
+        <f>(N9-O9)/P9</f>
+        <v>1.6733815529918104</v>
+      </c>
+      <c r="R9" s="6" t="str" cm="1">
+        <f t="array" ref="R9">_xlfn.LET(
+ _xlpm.s, N9,
+ _xlpm.mean, O9,
+ _xlpm.sd, P9,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11">
-        <v>5</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="13">
+        <v>5</v>
+      </c>
+      <c r="E10" s="13">
         <v>4</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>1.8</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <v>14.7</v>
       </c>
-      <c r="H10" s="11">
-        <v>5</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11">
+      <c r="H10" s="8">
+        <v>5</v>
+      </c>
+      <c r="I10" s="13">
+        <v>5</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
         <v>2.9</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="12">
+      <c r="L10" s="8">
+        <v>13.8</v>
+      </c>
+      <c r="M10" s="10">
+        <v>5</v>
+      </c>
+      <c r="N10" s="9">
         <f t="shared" si="0"/>
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>57.2</v>
+      </c>
+      <c r="O10" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P10" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q10" s="9">
+        <f>(N10-O10)/P10</f>
+        <v>0.36427760176938262</v>
+      </c>
+      <c r="R10" s="6" t="str" cm="1">
+        <f t="array" ref="R10">_xlfn.LET(
+ _xlpm.s, N10,
+ _xlpm.mean, O10,
+ _xlpm.sd, P10,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11">
-        <v>5</v>
-      </c>
-      <c r="E11" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="D11" s="13">
+        <v>5</v>
+      </c>
+      <c r="E11" s="13">
+        <v>5</v>
+      </c>
+      <c r="F11" s="8">
         <v>5.55</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="8">
         <v>12.15</v>
       </c>
-      <c r="H11" s="11">
-        <v>5</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11">
+      <c r="H11" s="8">
+        <v>5</v>
+      </c>
+      <c r="I11" s="13">
+        <v>5</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
         <v>5.8</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="12">
+      <c r="L11" s="8">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="M11" s="10">
+        <v>5</v>
+      </c>
+      <c r="N11" s="9">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="O11" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P11" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q11" s="9">
+        <f>(N11-O11)/P11</f>
+        <v>0.85444437802618234</v>
+      </c>
+      <c r="R11" s="6" t="str" cm="1">
+        <f t="array" ref="R11">_xlfn.LET(
+ _xlpm.s, N11,
+ _xlpm.mean, O11,
+ _xlpm.sd, P11,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11">
-        <v>5</v>
-      </c>
-      <c r="E12" s="11">
-        <v>2</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="D12" s="13">
+        <v>5</v>
+      </c>
+      <c r="E12" s="13">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8">
         <v>1.5</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <v>10</v>
       </c>
-      <c r="H12" s="11">
-        <v>5</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11">
+      <c r="H12" s="8">
+        <v>5</v>
+      </c>
+      <c r="I12" s="13">
+        <v>5</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
         <v>2.95</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="12">
+      <c r="L12" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M12" s="10">
+        <v>5</v>
+      </c>
+      <c r="N12" s="9">
         <f t="shared" si="0"/>
-        <v>26.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>46.650000000000006</v>
+      </c>
+      <c r="O12" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P12" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" ref="Q9:Q26" si="1">(N12-O12)/P12</f>
+        <v>-0.2663637993902801</v>
+      </c>
+      <c r="R12" s="6" t="str" cm="1">
+        <f t="array" ref="R12">_xlfn.LET(
+ _xlpm.s, N12,
+ _xlpm.mean, O12,
+ _xlpm.sd, P12,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11">
-        <v>5</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D13" s="13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="13">
         <v>2.5</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>1.9</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="8">
         <v>13.6</v>
       </c>
-      <c r="H13" s="11">
-        <v>5</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11">
+      <c r="H13" s="8">
+        <v>5</v>
+      </c>
+      <c r="I13" s="13">
+        <v>5</v>
+      </c>
+      <c r="J13" s="13">
+        <v>5</v>
+      </c>
+      <c r="K13" s="8">
         <v>4</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="12">
+      <c r="L13" s="8">
+        <v>14.7</v>
+      </c>
+      <c r="M13" s="10">
+        <v>5</v>
+      </c>
+      <c r="N13" s="9">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>61.7</v>
+      </c>
+      <c r="O13" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P13" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.63327156434933363</v>
+      </c>
+      <c r="R13" s="6" t="str" cm="1">
+        <f t="array" ref="R13">_xlfn.LET(
+ _xlpm.s, N13,
+ _xlpm.mean, O13,
+ _xlpm.sd, P13,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="11">
-        <v>5</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="D14" s="13">
+        <v>5</v>
+      </c>
+      <c r="E14" s="13">
         <v>2.5</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <v>1.4</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H14" s="11">
-        <v>5</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11">
+      <c r="H14" s="8">
+        <v>5</v>
+      </c>
+      <c r="I14" s="13">
+        <v>5</v>
+      </c>
+      <c r="J14" s="13">
+        <v>5</v>
+      </c>
+      <c r="K14" s="8">
         <v>3.4</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="12">
+      <c r="L14" s="8">
+        <v>11.3</v>
+      </c>
+      <c r="M14" s="10">
+        <v>5</v>
+      </c>
+      <c r="N14" s="9">
         <f t="shared" si="0"/>
-        <v>26.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>52.900000000000006</v>
+      </c>
+      <c r="O14" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P14" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="1"/>
+        <v>0.10723892641520737</v>
+      </c>
+      <c r="R14" s="6" t="str" cm="1">
+        <f t="array" ref="R14">_xlfn.LET(
+ _xlpm.s, N14,
+ _xlpm.mean, O14,
+ _xlpm.sd, P14,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="11">
-        <v>5</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="13">
+        <v>5</v>
+      </c>
+      <c r="E15" s="13">
         <v>0</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="8">
         <v>7</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="8">
         <v>4.2</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11">
+      <c r="I15" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
         <v>2.6</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="12">
+      <c r="L15" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="M15" s="10">
+        <v>5</v>
+      </c>
+      <c r="N15" s="9">
         <f t="shared" si="0"/>
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="O15" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P15" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.78044115009863146</v>
+      </c>
+      <c r="R15" s="6" t="str" cm="1">
+        <f t="array" ref="R15">_xlfn.LET(
+ _xlpm.s, N15,
+ _xlpm.mean, O15,
+ _xlpm.sd, P15,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="11">
-        <v>5</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="D16" s="13">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13">
         <v>2.5</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8">
         <v>4</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="8">
         <v>16.45</v>
       </c>
-      <c r="H16" s="11">
-        <v>5</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11">
+      <c r="H16" s="8">
+        <v>5</v>
+      </c>
+      <c r="I16" s="13">
+        <v>5</v>
+      </c>
+      <c r="J16" s="13">
+        <v>5</v>
+      </c>
+      <c r="K16" s="8">
         <v>2.0499999999999998</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="12">
+      <c r="L16" s="8">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="M16" s="10">
+        <v>5</v>
+      </c>
+      <c r="N16" s="9">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="O16" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P16" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.9142208141550604</v>
+      </c>
+      <c r="R16" s="6" t="str" cm="1">
+        <f t="array" ref="R16">_xlfn.LET(
+ _xlpm.s, N16,
+ _xlpm.mean, O16,
+ _xlpm.sd, P16,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="11">
-        <v>5</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="D17" s="13">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13">
         <v>2</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <v>3.65</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="8">
         <v>17</v>
       </c>
-      <c r="H17" s="11">
-        <v>5</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11">
+      <c r="H17" s="8">
+        <v>5</v>
+      </c>
+      <c r="I17" s="13">
+        <v>5</v>
+      </c>
+      <c r="J17" s="13">
+        <v>5</v>
+      </c>
+      <c r="K17" s="8">
         <v>5.3</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="12">
+      <c r="L17" s="8">
+        <v>18.3</v>
+      </c>
+      <c r="M17" s="10">
+        <v>5</v>
+      </c>
+      <c r="N17" s="9">
         <f t="shared" si="0"/>
-        <v>37.949999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>71.25</v>
+      </c>
+      <c r="O17" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P17" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2041365293801183</v>
+      </c>
+      <c r="R17" s="6" t="str" cm="1">
+        <f t="array" ref="R17">_xlfn.LET(
+ _xlpm.s, N17,
+ _xlpm.mean, O17,
+ _xlpm.sd, P17,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="13">
         <v>4.375</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="13">
         <v>0</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="8">
         <v>5.3</v>
       </c>
-      <c r="H18" s="11">
-        <v>5</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11">
+      <c r="H18" s="8">
+        <v>5</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
         <v>1</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="12">
+      <c r="L18" s="8">
+        <v>3</v>
+      </c>
+      <c r="M18" s="10">
+        <v>5</v>
+      </c>
+      <c r="N18" s="9">
         <f t="shared" si="0"/>
-        <v>17.875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>25.875</v>
+      </c>
+      <c r="O18" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P18" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.5082192599677209</v>
+      </c>
+      <c r="R18" s="6" t="str" cm="1">
+        <f t="array" ref="R18">_xlfn.LET(
+ _xlpm.s, N18,
+ _xlpm.mean, O18,
+ _xlpm.sd, P18,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="11">
-        <v>5</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="D19" s="13">
+        <v>5</v>
+      </c>
+      <c r="E19" s="13">
         <v>2.5</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8">
         <v>2.1</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="8">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="8">
         <v>4.2</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11">
+      <c r="I19" s="13">
+        <v>5</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
         <v>2.75</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="12">
+      <c r="L19" s="8">
+        <v>11</v>
+      </c>
+      <c r="M19" s="10">
+        <v>5</v>
+      </c>
+      <c r="N19" s="9">
         <f t="shared" si="0"/>
-        <v>25.349999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>46.349999999999994</v>
+      </c>
+      <c r="O19" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P19" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.28429673022894419</v>
+      </c>
+      <c r="R19" s="6" t="str" cm="1">
+        <f t="array" ref="R19">_xlfn.LET(
+ _xlpm.s, N19,
+ _xlpm.mean, O19,
+ _xlpm.sd, P19,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="11">
-        <v>5</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="D20" s="13">
+        <v>5</v>
+      </c>
+      <c r="E20" s="13">
         <v>4.5</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="8">
         <v>5.2</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="8">
         <v>13.65</v>
       </c>
-      <c r="H20" s="11">
-        <v>5</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11">
+      <c r="H20" s="8">
+        <v>5</v>
+      </c>
+      <c r="I20" s="13">
+        <v>5</v>
+      </c>
+      <c r="J20" s="13">
+        <v>5</v>
+      </c>
+      <c r="K20" s="8">
         <v>6.1</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="12">
+      <c r="L20" s="8">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M20" s="10">
+        <v>5</v>
+      </c>
+      <c r="N20" s="9">
         <f t="shared" si="0"/>
-        <v>39.450000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>71.550000000000011</v>
+      </c>
+      <c r="O20" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P20" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2220694602187825</v>
+      </c>
+      <c r="R20" s="6" t="str" cm="1">
+        <f t="array" ref="R20">_xlfn.LET(
+ _xlpm.s, N20,
+ _xlpm.mean, O20,
+ _xlpm.sd, P20,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="11">
-        <v>5</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="D21" s="13">
+        <v>5</v>
+      </c>
+      <c r="E21" s="13">
         <v>0</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="8">
         <v>1.7</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="8">
         <v>11.35</v>
       </c>
-      <c r="H21" s="11">
-        <v>5</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11">
+      <c r="H21" s="8">
+        <v>5</v>
+      </c>
+      <c r="I21" s="13">
+        <v>5</v>
+      </c>
+      <c r="J21" s="13">
+        <v>5</v>
+      </c>
+      <c r="K21" s="8">
         <v>3.5</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="12">
+      <c r="L21" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="M21" s="10">
+        <v>5</v>
+      </c>
+      <c r="N21" s="9">
         <f t="shared" si="0"/>
-        <v>26.55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>46.75</v>
+      </c>
+      <c r="O21" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P21" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.26038615577739266</v>
+      </c>
+      <c r="R21" s="6" t="str" cm="1">
+        <f t="array" ref="R21">_xlfn.LET(
+ _xlpm.s, N21,
+ _xlpm.mean, O21,
+ _xlpm.sd, P21,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="13">
         <v>4.38</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="13">
         <v>2.5</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="8">
         <v>3.5</v>
       </c>
-      <c r="H22" s="11">
-        <v>5</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11">
+      <c r="H22" s="8">
+        <v>5</v>
+      </c>
+      <c r="I22" s="13">
+        <v>4</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
         <v>3.3</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="12">
+      <c r="L22" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="M22" s="10">
+        <v>5</v>
+      </c>
+      <c r="N22" s="9">
         <f t="shared" si="0"/>
-        <v>20.98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>35.78</v>
+      </c>
+      <c r="O22" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P22" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.91613366011118424</v>
+      </c>
+      <c r="R22" s="6" t="str" cm="1">
+        <f t="array" ref="R22">_xlfn.LET(
+ _xlpm.s, N22,
+ _xlpm.mean, O22,
+ _xlpm.sd, P22,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="11">
-        <v>5</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="D23" s="13">
+        <v>5</v>
+      </c>
+      <c r="E23" s="13">
         <v>2.5</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="8">
         <v>2.35</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="8">
         <v>17.8</v>
       </c>
-      <c r="H23" s="11">
-        <v>5</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11">
+      <c r="H23" s="8">
+        <v>5</v>
+      </c>
+      <c r="I23" s="13">
+        <v>5</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
         <v>6.5250000000000004</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="12">
+      <c r="L23" s="8">
+        <v>15.2</v>
+      </c>
+      <c r="M23" s="10">
+        <v>5</v>
+      </c>
+      <c r="N23" s="9">
         <f t="shared" si="0"/>
-        <v>39.174999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>64.375</v>
+      </c>
+      <c r="O23" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P23" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="1"/>
+        <v>0.79317353099408205</v>
+      </c>
+      <c r="R23" s="6" t="str" cm="1">
+        <f t="array" ref="R23">_xlfn.LET(
+ _xlpm.s, N23,
+ _xlpm.mean, O23,
+ _xlpm.sd, P23,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="11">
-        <v>5</v>
-      </c>
-      <c r="E24" s="11">
+      <c r="D24" s="13">
+        <v>5</v>
+      </c>
+      <c r="E24" s="13">
         <v>0</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="8">
         <v>1.8</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="8">
         <v>11.4</v>
       </c>
-      <c r="H24" s="11">
-        <v>5</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11">
+      <c r="H24" s="8">
+        <v>5</v>
+      </c>
+      <c r="I24" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="J24" s="13">
+        <v>5</v>
+      </c>
+      <c r="K24" s="8">
         <v>1.4</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="12">
+      <c r="L24" s="8">
+        <v>10.95</v>
+      </c>
+      <c r="M24" s="10">
+        <v>5</v>
+      </c>
+      <c r="N24" s="9">
         <f t="shared" si="0"/>
-        <v>24.599999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>50.05</v>
+      </c>
+      <c r="O24" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P24" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="1"/>
+        <v>-6.3123916552095441E-2</v>
+      </c>
+      <c r="R24" s="6" t="str" cm="1">
+        <f t="array" ref="R24">_xlfn.LET(
+ _xlpm.s, N24,
+ _xlpm.mean, O24,
+ _xlpm.sd, P24,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="13">
         <v>0.625</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="13">
         <v>0</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="8">
         <v>2.15</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="8">
         <v>3.3</v>
       </c>
-      <c r="H25" s="11">
-        <v>5</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11">
+      <c r="H25" s="8">
+        <v>5</v>
+      </c>
+      <c r="I25" s="13">
         <v>0</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="12">
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
         <f t="shared" si="0"/>
         <v>11.074999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="O25" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P25" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="1"/>
+        <v>-2.3929105146751155</v>
+      </c>
+      <c r="R25" s="6" t="str" cm="1">
+        <f t="array" ref="R25">_xlfn.LET(
+ _xlpm.s, N25,
+ _xlpm.mean, O25,
+ _xlpm.sd, P25,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="11">
-        <v>5</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="D26" s="13">
+        <v>5</v>
+      </c>
+      <c r="E26" s="13">
         <v>2.5</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="8">
         <v>1.55</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H26" s="11">
-        <v>5</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11">
+      <c r="H26" s="8">
+        <v>5</v>
+      </c>
+      <c r="I26" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8">
         <v>2.0499999999999998</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="12">
+      <c r="L26" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="M26" s="10">
+        <v>5</v>
+      </c>
+      <c r="N26" s="9">
         <f t="shared" si="0"/>
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5">
-        <f>AVERAGE(F8:F26)</f>
-        <v>2.6736842105263152</v>
-      </c>
-      <c r="G27" s="5">
-        <f>AVERAGE(G8:G26)</f>
-        <v>11.047368421052633</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="5">
-        <f>AVERAGE(K8:K26)</f>
-        <v>3.4881578947368417</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="5">
+        <v>41.1</v>
+      </c>
+      <c r="O26" s="9">
+        <v>51.106000000000002</v>
+      </c>
+      <c r="P26" s="9">
+        <v>16.728999999999999</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.59812301990555328</v>
+      </c>
+      <c r="R26" s="6" t="str" cm="1">
+        <f t="array" ref="R26">_xlfn.LET(
+ _xlpm.s, N26,
+ _xlpm.mean, O26,
+ _xlpm.sd, P26,
+ _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+ _xlpm.base, _xlfn.IFS(
+   _xlpm.z&gt;=1, "A",
+   _xlpm.z&gt;=0.3, "B+",
+   _xlpm.z&gt;=0, "B",
+   _xlpm.z&gt;=-0.3, "C+",
+   _xlpm.z&gt;=-1, "C",
+   _xlpm.z&gt;=-2, "D",
+   TRUE, "F"
+ ),
+ _xlfn.IFS(
+   _xlpm.s&lt;40, "F",
+   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
+   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
+   TRUE, _xlpm.base
+ )
+)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27" s="9">
         <f>AVERAGE(N8:N26)</f>
-        <v>28.776578947368421</v>
+        <v>51.263421052631578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+      <c r="M28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="9">
+        <f>_xlfn.STDEV.P(N8:N26)</f>
+        <v>16.632010753888178</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="10">
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A2:N2"/>
+  <mergeCells count="14">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="A5:A7"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5566D9F8-E211-41D6-9A52-AA74D91A3677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCA92A2-D871-4BAE-B3AE-F1A904251E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -397,12 +397,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,8 +413,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,7 +726,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,153 +749,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" spans="1:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="6" t="s">
         <v>54</v>
       </c>
@@ -929,26 +926,26 @@
       <c r="M7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
     </row>
     <row r="8" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="14">
-        <v>5</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="D8" s="12">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12">
         <v>3</v>
       </c>
       <c r="F8" s="7">
@@ -960,10 +957,10 @@
       <c r="H8" s="7">
         <v>5</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="12">
         <v>4.5</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="12">
         <v>0</v>
       </c>
       <c r="K8" s="7">
@@ -972,44 +969,42 @@
       <c r="L8" s="7">
         <v>5</v>
       </c>
-      <c r="M8" s="17">
-        <v>5</v>
-      </c>
-      <c r="N8" s="18">
+      <c r="M8" s="15">
+        <v>5</v>
+      </c>
+      <c r="N8" s="16">
         <f>SUM(D8:M8)</f>
         <v>42.449999999999996</v>
       </c>
-      <c r="O8" s="18">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P8" s="18">
-        <v>16.728999999999999</v>
-      </c>
-      <c r="Q8" s="18">
+      <c r="O8" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P8" s="16">
+        <v>16.632010753888178</v>
+      </c>
+      <c r="Q8" s="16">
         <f>(N8-O8)/P8</f>
-        <v>-0.51742483113156834</v>
-      </c>
-      <c r="R8" s="19" t="str" cm="1">
+        <v>-0.52990712807056173</v>
+      </c>
+      <c r="R8" s="6" t="str" cm="1">
         <f t="array" ref="R8">_xlfn.LET(
- _xlpm.s, N8,
- _xlpm.mean, O8,
- _xlpm.sd, P8,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N8,
+  _xlpm.mean, O8,
+  _xlpm.sd, P8,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>C</v>
       </c>
@@ -1024,10 +1019,10 @@
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="13">
-        <v>5</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="D9" s="11">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11">
         <v>4.5</v>
       </c>
       <c r="F9" s="8">
@@ -1039,10 +1034,10 @@
       <c r="H9" s="8">
         <v>5</v>
       </c>
-      <c r="I9" s="13">
-        <v>5</v>
-      </c>
-      <c r="J9" s="13">
+      <c r="I9" s="11">
+        <v>5</v>
+      </c>
+      <c r="J9" s="11">
         <v>5</v>
       </c>
       <c r="K9" s="8">
@@ -1058,37 +1053,35 @@
         <f t="shared" ref="N9:N26" si="0">SUM(D9:M9)</f>
         <v>79.099999999999994</v>
       </c>
-      <c r="O9" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P9" s="9">
-        <v>16.728999999999999</v>
+      <c r="O9" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P9" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q9" s="9">
         <f>(N9-O9)/P9</f>
-        <v>1.6733815529918104</v>
+        <v>1.673674900724849</v>
       </c>
       <c r="R9" s="6" t="str" cm="1">
         <f t="array" ref="R9">_xlfn.LET(
- _xlpm.s, N9,
- _xlpm.mean, O9,
- _xlpm.sd, P9,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N9,
+  _xlpm.mean, O9,
+  _xlpm.sd, P9,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>A</v>
       </c>
@@ -1103,10 +1096,10 @@
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13">
-        <v>5</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="D10" s="11">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11">
         <v>4</v>
       </c>
       <c r="F10" s="8">
@@ -1118,10 +1111,10 @@
       <c r="H10" s="8">
         <v>5</v>
       </c>
-      <c r="I10" s="13">
-        <v>5</v>
-      </c>
-      <c r="J10" s="13">
+      <c r="I10" s="11">
+        <v>5</v>
+      </c>
+      <c r="J10" s="11">
         <v>0</v>
       </c>
       <c r="K10" s="8">
@@ -1137,37 +1130,35 @@
         <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
-      <c r="O10" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P10" s="9">
-        <v>16.728999999999999</v>
+      <c r="O10" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P10" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q10" s="9">
         <f>(N10-O10)/P10</f>
-        <v>0.36427760176938262</v>
+        <v>0.35693693536006105</v>
       </c>
       <c r="R10" s="6" t="str" cm="1">
         <f t="array" ref="R10">_xlfn.LET(
- _xlpm.s, N10,
- _xlpm.mean, O10,
- _xlpm.sd, P10,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N10,
+  _xlpm.mean, O10,
+  _xlpm.sd, P10,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>B+</v>
       </c>
@@ -1182,10 +1173,10 @@
       <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="13">
-        <v>5</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="D11" s="11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="11">
         <v>5</v>
       </c>
       <c r="F11" s="8">
@@ -1197,10 +1188,10 @@
       <c r="H11" s="8">
         <v>5</v>
       </c>
-      <c r="I11" s="13">
-        <v>5</v>
-      </c>
-      <c r="J11" s="13">
+      <c r="I11" s="11">
+        <v>5</v>
+      </c>
+      <c r="J11" s="11">
         <v>0</v>
       </c>
       <c r="K11" s="8">
@@ -1216,37 +1207,35 @@
         <f t="shared" si="0"/>
         <v>65.400000000000006</v>
       </c>
-      <c r="O11" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P11" s="9">
-        <v>16.728999999999999</v>
+      <c r="O11" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P11" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q11" s="9">
         <f>(N11-O11)/P11</f>
-        <v>0.85444437802618234</v>
+        <v>0.84996210960623764</v>
       </c>
       <c r="R11" s="6" t="str" cm="1">
         <f t="array" ref="R11">_xlfn.LET(
- _xlpm.s, N11,
- _xlpm.mean, O11,
- _xlpm.sd, P11,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N11,
+  _xlpm.mean, O11,
+  _xlpm.sd, P11,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>B+</v>
       </c>
@@ -1261,10 +1250,10 @@
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13">
-        <v>5</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="11">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11">
         <v>3</v>
       </c>
       <c r="F12" s="8">
@@ -1276,10 +1265,10 @@
       <c r="H12" s="8">
         <v>5</v>
       </c>
-      <c r="I12" s="13">
-        <v>5</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="I12" s="11">
+        <v>5</v>
+      </c>
+      <c r="J12" s="11">
         <v>0</v>
       </c>
       <c r="K12" s="8">
@@ -1295,37 +1284,35 @@
         <f t="shared" si="0"/>
         <v>46.650000000000006</v>
       </c>
-      <c r="O12" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P12" s="9">
-        <v>16.728999999999999</v>
+      <c r="O12" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P12" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q12" s="9">
-        <f t="shared" ref="Q9:Q26" si="1">(N12-O12)/P12</f>
-        <v>-0.2663637993902801</v>
+        <f t="shared" ref="Q12:Q26" si="1">(N12-O12)/P12</f>
+        <v>-0.27738203882251949</v>
       </c>
       <c r="R12" s="6" t="str" cm="1">
         <f t="array" ref="R12">_xlfn.LET(
- _xlpm.s, N12,
- _xlpm.mean, O12,
- _xlpm.sd, P12,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N12,
+  _xlpm.mean, O12,
+  _xlpm.sd, P12,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>C+</v>
       </c>
@@ -1340,10 +1327,10 @@
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="13">
-        <v>5</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="D13" s="11">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11">
         <v>2.5</v>
       </c>
       <c r="F13" s="8">
@@ -1355,10 +1342,10 @@
       <c r="H13" s="8">
         <v>5</v>
       </c>
-      <c r="I13" s="13">
-        <v>5</v>
-      </c>
-      <c r="J13" s="13">
+      <c r="I13" s="11">
+        <v>5</v>
+      </c>
+      <c r="J13" s="11">
         <v>5</v>
       </c>
       <c r="K13" s="8">
@@ -1374,37 +1361,35 @@
         <f t="shared" si="0"/>
         <v>61.7</v>
       </c>
-      <c r="O13" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P13" s="9">
-        <v>16.728999999999999</v>
+      <c r="O13" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P13" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q13" s="9">
         <f t="shared" si="1"/>
-        <v>0.63327156434933363</v>
+        <v>0.62749953098296274</v>
       </c>
       <c r="R13" s="6" t="str" cm="1">
         <f t="array" ref="R13">_xlfn.LET(
- _xlpm.s, N13,
- _xlpm.mean, O13,
- _xlpm.sd, P13,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N13,
+  _xlpm.mean, O13,
+  _xlpm.sd, P13,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>B+</v>
       </c>
@@ -1419,10 +1404,10 @@
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13">
-        <v>5</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="D14" s="11">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11">
         <v>2.5</v>
       </c>
       <c r="F14" s="8">
@@ -1434,10 +1419,10 @@
       <c r="H14" s="8">
         <v>5</v>
       </c>
-      <c r="I14" s="13">
-        <v>5</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="I14" s="11">
+        <v>5</v>
+      </c>
+      <c r="J14" s="11">
         <v>5</v>
       </c>
       <c r="K14" s="8">
@@ -1453,37 +1438,35 @@
         <f t="shared" si="0"/>
         <v>52.900000000000006</v>
       </c>
-      <c r="O14" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P14" s="9">
-        <v>16.728999999999999</v>
+      <c r="O14" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P14" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q14" s="9">
         <f t="shared" si="1"/>
-        <v>0.10723892641520737</v>
+        <v>9.8399343987066221E-2</v>
       </c>
       <c r="R14" s="6" t="str" cm="1">
         <f t="array" ref="R14">_xlfn.LET(
- _xlpm.s, N14,
- _xlpm.mean, O14,
- _xlpm.sd, P14,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N14,
+  _xlpm.mean, O14,
+  _xlpm.sd, P14,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>B</v>
       </c>
@@ -1498,10 +1481,10 @@
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="13">
-        <v>5</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="D15" s="11">
+        <v>5</v>
+      </c>
+      <c r="E15" s="11">
         <v>0</v>
       </c>
       <c r="F15" s="8">
@@ -1513,10 +1496,10 @@
       <c r="H15" s="8">
         <v>4.2</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="11">
         <v>4.5</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="11">
         <v>0</v>
       </c>
       <c r="K15" s="8">
@@ -1532,39 +1515,37 @@
         <f t="shared" si="0"/>
         <v>38.049999999999997</v>
       </c>
-      <c r="O15" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P15" s="9">
-        <v>16.728999999999999</v>
+      <c r="O15" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P15" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q15" s="9">
         <f t="shared" si="1"/>
-        <v>-0.78044115009863146</v>
+        <v>-0.79445722156850995</v>
       </c>
       <c r="R15" s="6" t="str" cm="1">
         <f t="array" ref="R15">_xlfn.LET(
- _xlpm.s, N15,
- _xlpm.mean, O15,
- _xlpm.sd, P15,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N15,
+  _xlpm.mean, O15,
+  _xlpm.sd, P15,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
-        <v>F</v>
+        <v>C</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1577,10 +1558,10 @@
       <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="13">
-        <v>5</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="D16" s="11">
+        <v>5</v>
+      </c>
+      <c r="E16" s="11">
         <v>2.5</v>
       </c>
       <c r="F16" s="8">
@@ -1592,10 +1573,10 @@
       <c r="H16" s="8">
         <v>5</v>
       </c>
-      <c r="I16" s="13">
-        <v>5</v>
-      </c>
-      <c r="J16" s="13">
+      <c r="I16" s="11">
+        <v>5</v>
+      </c>
+      <c r="J16" s="11">
         <v>5</v>
       </c>
       <c r="K16" s="8">
@@ -1611,37 +1592,35 @@
         <f t="shared" si="0"/>
         <v>66.400000000000006</v>
       </c>
-      <c r="O16" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P16" s="9">
-        <v>16.728999999999999</v>
+      <c r="O16" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P16" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="1"/>
-        <v>0.9142208141550604</v>
+        <v>0.91008713085577142</v>
       </c>
       <c r="R16" s="6" t="str" cm="1">
         <f t="array" ref="R16">_xlfn.LET(
- _xlpm.s, N16,
- _xlpm.mean, O16,
- _xlpm.sd, P16,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N16,
+  _xlpm.mean, O16,
+  _xlpm.sd, P16,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>B+</v>
       </c>
@@ -1656,10 +1635,10 @@
       <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="13">
-        <v>5</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="D17" s="11">
+        <v>5</v>
+      </c>
+      <c r="E17" s="11">
         <v>2</v>
       </c>
       <c r="F17" s="8">
@@ -1671,10 +1650,10 @@
       <c r="H17" s="8">
         <v>5</v>
       </c>
-      <c r="I17" s="13">
-        <v>5</v>
-      </c>
-      <c r="J17" s="13">
+      <c r="I17" s="11">
+        <v>5</v>
+      </c>
+      <c r="J17" s="11">
         <v>5</v>
       </c>
       <c r="K17" s="8">
@@ -1690,37 +1669,35 @@
         <f t="shared" si="0"/>
         <v>71.25</v>
       </c>
-      <c r="O17" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P17" s="9">
-        <v>16.728999999999999</v>
+      <c r="O17" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P17" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q17" s="9">
         <f t="shared" si="1"/>
-        <v>1.2041365293801183</v>
+        <v>1.2016934839160096</v>
       </c>
       <c r="R17" s="6" t="str" cm="1">
         <f t="array" ref="R17">_xlfn.LET(
- _xlpm.s, N17,
- _xlpm.mean, O17,
- _xlpm.sd, P17,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N17,
+  _xlpm.mean, O17,
+  _xlpm.sd, P17,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>A</v>
       </c>
@@ -1735,10 +1712,10 @@
       <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <v>4.375</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <v>0</v>
       </c>
       <c r="F18" s="8">
@@ -1750,10 +1727,10 @@
       <c r="H18" s="8">
         <v>5</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="11">
         <v>0</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="11">
         <v>0</v>
       </c>
       <c r="K18" s="8">
@@ -1766,40 +1743,38 @@
         <v>5</v>
       </c>
       <c r="N18" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D18:M18)</f>
         <v>25.875</v>
       </c>
-      <c r="O18" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P18" s="9">
-        <v>16.728999999999999</v>
+      <c r="O18" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P18" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q18" s="9">
         <f t="shared" si="1"/>
-        <v>-1.5082192599677209</v>
+        <v>-1.5264793552815827</v>
       </c>
       <c r="R18" s="6" t="str" cm="1">
         <f t="array" ref="R18">_xlfn.LET(
- _xlpm.s, N18,
- _xlpm.mean, O18,
- _xlpm.sd, P18,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N18,
+  _xlpm.mean, O18,
+  _xlpm.sd, P18,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>F</v>
       </c>
@@ -1814,10 +1789,10 @@
       <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="13">
-        <v>5</v>
-      </c>
-      <c r="E19" s="13">
+      <c r="D19" s="11">
+        <v>5</v>
+      </c>
+      <c r="E19" s="11">
         <v>2.5</v>
       </c>
       <c r="F19" s="8">
@@ -1829,10 +1804,10 @@
       <c r="H19" s="8">
         <v>4.2</v>
       </c>
-      <c r="I19" s="13">
-        <v>5</v>
-      </c>
-      <c r="J19" s="13">
+      <c r="I19" s="11">
+        <v>5</v>
+      </c>
+      <c r="J19" s="11">
         <v>0</v>
       </c>
       <c r="K19" s="8">
@@ -1848,37 +1823,35 @@
         <f t="shared" si="0"/>
         <v>46.349999999999994</v>
       </c>
-      <c r="O19" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P19" s="9">
-        <v>16.728999999999999</v>
+      <c r="O19" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P19" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="1"/>
-        <v>-0.28429673022894419</v>
+        <v>-0.29541954519738034</v>
       </c>
       <c r="R19" s="6" t="str" cm="1">
         <f t="array" ref="R19">_xlfn.LET(
- _xlpm.s, N19,
- _xlpm.mean, O19,
- _xlpm.sd, P19,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N19,
+  _xlpm.mean, O19,
+  _xlpm.sd, P19,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>C+</v>
       </c>
@@ -1893,10 +1866,10 @@
       <c r="C20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="13">
-        <v>5</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="D20" s="11">
+        <v>5</v>
+      </c>
+      <c r="E20" s="11">
         <v>4.5</v>
       </c>
       <c r="F20" s="8">
@@ -1908,10 +1881,10 @@
       <c r="H20" s="8">
         <v>5</v>
       </c>
-      <c r="I20" s="13">
-        <v>5</v>
-      </c>
-      <c r="J20" s="13">
+      <c r="I20" s="11">
+        <v>5</v>
+      </c>
+      <c r="J20" s="11">
         <v>5</v>
       </c>
       <c r="K20" s="8">
@@ -1927,37 +1900,35 @@
         <f t="shared" si="0"/>
         <v>71.550000000000011</v>
       </c>
-      <c r="O20" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P20" s="9">
-        <v>16.728999999999999</v>
+      <c r="O20" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P20" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q20" s="9">
         <f t="shared" si="1"/>
-        <v>1.2220694602187825</v>
+        <v>1.2197309902908704</v>
       </c>
       <c r="R20" s="6" t="str" cm="1">
         <f t="array" ref="R20">_xlfn.LET(
- _xlpm.s, N20,
- _xlpm.mean, O20,
- _xlpm.sd, P20,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N20,
+  _xlpm.mean, O20,
+  _xlpm.sd, P20,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>A</v>
       </c>
@@ -1972,10 +1943,10 @@
       <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="13">
-        <v>5</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="D21" s="11">
+        <v>5</v>
+      </c>
+      <c r="E21" s="11">
         <v>0</v>
       </c>
       <c r="F21" s="8">
@@ -1987,10 +1958,10 @@
       <c r="H21" s="8">
         <v>5</v>
       </c>
-      <c r="I21" s="13">
-        <v>5</v>
-      </c>
-      <c r="J21" s="13">
+      <c r="I21" s="11">
+        <v>5</v>
+      </c>
+      <c r="J21" s="11">
         <v>5</v>
       </c>
       <c r="K21" s="8">
@@ -2006,37 +1977,35 @@
         <f t="shared" si="0"/>
         <v>46.75</v>
       </c>
-      <c r="O21" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P21" s="9">
-        <v>16.728999999999999</v>
+      <c r="O21" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P21" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q21" s="9">
         <f t="shared" si="1"/>
-        <v>-0.26038615577739266</v>
+        <v>-0.27136953669756647</v>
       </c>
       <c r="R21" s="6" t="str" cm="1">
         <f t="array" ref="R21">_xlfn.LET(
- _xlpm.s, N21,
- _xlpm.mean, O21,
- _xlpm.sd, P21,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N21,
+  _xlpm.mean, O21,
+  _xlpm.sd, P21,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>C+</v>
       </c>
@@ -2051,10 +2020,10 @@
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="11">
         <v>4.38</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="11">
         <v>2.5</v>
       </c>
       <c r="F22" s="8">
@@ -2066,10 +2035,10 @@
       <c r="H22" s="8">
         <v>5</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="11">
         <v>4</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="11">
         <v>0</v>
       </c>
       <c r="K22" s="8">
@@ -2085,39 +2054,37 @@
         <f t="shared" si="0"/>
         <v>35.78</v>
       </c>
-      <c r="O22" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P22" s="9">
-        <v>16.728999999999999</v>
+      <c r="O22" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P22" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q22" s="9">
         <f t="shared" si="1"/>
-        <v>-0.91613366011118424</v>
+        <v>-0.93094101980495125</v>
       </c>
       <c r="R22" s="6" t="str" cm="1">
         <f t="array" ref="R22">_xlfn.LET(
- _xlpm.s, N22,
- _xlpm.mean, O22,
- _xlpm.sd, P22,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N22,
+  _xlpm.mean, O22,
+  _xlpm.sd, P22,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
-        <v>F</v>
+        <v>C</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -2130,10 +2097,10 @@
       <c r="C23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="13">
-        <v>5</v>
-      </c>
-      <c r="E23" s="13">
+      <c r="D23" s="11">
+        <v>5</v>
+      </c>
+      <c r="E23" s="11">
         <v>2.5</v>
       </c>
       <c r="F23" s="8">
@@ -2145,10 +2112,10 @@
       <c r="H23" s="8">
         <v>5</v>
       </c>
-      <c r="I23" s="13">
-        <v>5</v>
-      </c>
-      <c r="J23" s="13">
+      <c r="I23" s="11">
+        <v>5</v>
+      </c>
+      <c r="J23" s="11">
         <v>0</v>
       </c>
       <c r="K23" s="8">
@@ -2164,37 +2131,35 @@
         <f t="shared" si="0"/>
         <v>64.375</v>
       </c>
-      <c r="O23" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P23" s="9">
-        <v>16.728999999999999</v>
+      <c r="O23" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P23" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q23" s="9">
         <f t="shared" si="1"/>
-        <v>0.79317353099408205</v>
+        <v>0.78833396282546531</v>
       </c>
       <c r="R23" s="6" t="str" cm="1">
         <f t="array" ref="R23">_xlfn.LET(
- _xlpm.s, N23,
- _xlpm.mean, O23,
- _xlpm.sd, P23,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N23,
+  _xlpm.mean, O23,
+  _xlpm.sd, P23,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>B+</v>
       </c>
@@ -2209,10 +2174,10 @@
       <c r="C24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="13">
-        <v>5</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="D24" s="11">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11">
         <v>0</v>
       </c>
       <c r="F24" s="8">
@@ -2224,10 +2189,10 @@
       <c r="H24" s="8">
         <v>5</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="11">
         <v>4.5</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="11">
         <v>5</v>
       </c>
       <c r="K24" s="8">
@@ -2243,37 +2208,35 @@
         <f t="shared" si="0"/>
         <v>50.05</v>
       </c>
-      <c r="O24" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P24" s="9">
-        <v>16.728999999999999</v>
+      <c r="O24" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P24" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q24" s="9">
         <f t="shared" si="1"/>
-        <v>-6.3123916552095441E-2</v>
+        <v>-7.2956966574105386E-2</v>
       </c>
       <c r="R24" s="6" t="str" cm="1">
         <f t="array" ref="R24">_xlfn.LET(
- _xlpm.s, N24,
- _xlpm.mean, O24,
- _xlpm.sd, P24,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N24,
+  _xlpm.mean, O24,
+  _xlpm.sd, P24,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>C+</v>
       </c>
@@ -2288,10 +2251,10 @@
       <c r="C25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="11">
         <v>0.625</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="11">
         <v>0</v>
       </c>
       <c r="F25" s="8">
@@ -2303,10 +2266,10 @@
       <c r="H25" s="8">
         <v>5</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="11">
         <v>0</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="11">
         <v>0</v>
       </c>
       <c r="K25" s="8">
@@ -2322,37 +2285,35 @@
         <f t="shared" si="0"/>
         <v>11.074999999999999</v>
       </c>
-      <c r="O25" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P25" s="9">
-        <v>16.728999999999999</v>
+      <c r="O25" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P25" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="1"/>
-        <v>-2.3929105146751155</v>
+        <v>-2.4163296697746821</v>
       </c>
       <c r="R25" s="6" t="str" cm="1">
         <f t="array" ref="R25">_xlfn.LET(
- _xlpm.s, N25,
- _xlpm.mean, O25,
- _xlpm.sd, P25,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N25,
+  _xlpm.mean, O25,
+  _xlpm.sd, P25,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>F</v>
       </c>
@@ -2367,10 +2328,10 @@
       <c r="C26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="13">
-        <v>5</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="D26" s="11">
+        <v>5</v>
+      </c>
+      <c r="E26" s="11">
         <v>2.5</v>
       </c>
       <c r="F26" s="8">
@@ -2382,10 +2343,10 @@
       <c r="H26" s="8">
         <v>5</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="11">
         <v>4.5</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="11">
         <v>0</v>
       </c>
       <c r="K26" s="8">
@@ -2401,37 +2362,35 @@
         <f t="shared" si="0"/>
         <v>41.1</v>
       </c>
-      <c r="O26" s="9">
-        <v>51.106000000000002</v>
-      </c>
-      <c r="P26" s="9">
-        <v>16.728999999999999</v>
+      <c r="O26" s="16">
+        <v>51.263421052631578</v>
+      </c>
+      <c r="P26" s="16">
+        <v>16.632010753888178</v>
       </c>
       <c r="Q26" s="9">
         <f t="shared" si="1"/>
-        <v>-0.59812301990555328</v>
+        <v>-0.61107590675743195</v>
       </c>
       <c r="R26" s="6" t="str" cm="1">
         <f t="array" ref="R26">_xlfn.LET(
- _xlpm.s, N26,
- _xlpm.mean, O26,
- _xlpm.sd, P26,
- _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
- _xlpm.base, _xlfn.IFS(
-   _xlpm.z&gt;=1, "A",
-   _xlpm.z&gt;=0.3, "B+",
-   _xlpm.z&gt;=0, "B",
-   _xlpm.z&gt;=-0.3, "C+",
-   _xlpm.z&gt;=-1, "C",
-   _xlpm.z&gt;=-2, "D",
-   TRUE, "F"
- ),
- _xlfn.IFS(
-   _xlpm.s&lt;40, "F",
-   _xlpm.s&gt;=80, IF(OR(_xlpm.base="A",_xlpm.base="B+",_xlpm.base="B"), _xlpm.base, "B"),
-   _xlpm.s&gt;=50, IF(_xlpm.base="F","D",_xlpm.base),
-   TRUE, _xlpm.base
- )
+  _xlpm.s, N26,
+  _xlpm.mean, O26,
+  _xlpm.sd, P26,
+  _xlpm.z, IF(_xlpm.sd=0,0,(_xlpm.s-_xlpm.mean)/_xlpm.sd),
+  _xlpm.base, _xlfn.IFS(
+    _xlpm.z&gt;=1, "A",
+    _xlpm.z&gt;=0.3, "B+",
+    _xlpm.z&gt;=0, "B",
+    _xlpm.z&gt;=-0.3, "C+",
+    _xlpm.z&gt;=-1, "C",
+    _xlpm.z&gt;=-1.5, "D",
+    TRUE, "F"
+  ),
+  _xlfn.IFS(
+    _xlpm.s&gt;=80, "A",
+    TRUE, _xlpm.base
+  )
 )</f>
         <v>C</v>
       </c>
@@ -2469,6 +2428,13 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:H6"/>
+    <mergeCell ref="I5:M6"/>
     <mergeCell ref="O5:O7"/>
     <mergeCell ref="P5:P7"/>
     <mergeCell ref="Q5:Q7"/>
@@ -2476,13 +2442,6 @@
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:H6"/>
-    <mergeCell ref="I5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCA92A2-D871-4BAE-B3AE-F1A904251E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D56EFC1-E5FB-484D-8168-9EFE513F1933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
       <charset val="222"/>
@@ -373,51 +372,51 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,267 +725,267 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="13">
+      <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12">
-        <v>5</v>
-      </c>
-      <c r="E8" s="12">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="D8" s="10">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="10">
         <v>9.1</v>
       </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="H8" s="10">
+        <v>5</v>
+      </c>
+      <c r="I8" s="10">
         <v>4.5</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <v>0</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="10">
         <v>3.65</v>
       </c>
-      <c r="L8" s="7">
-        <v>5</v>
-      </c>
-      <c r="M8" s="15">
-        <v>5</v>
-      </c>
-      <c r="N8" s="16">
+      <c r="L8" s="10">
+        <v>5</v>
+      </c>
+      <c r="M8" s="11">
+        <v>5</v>
+      </c>
+      <c r="N8" s="12">
         <f>SUM(D8:M8)</f>
-        <v>42.449999999999996</v>
-      </c>
-      <c r="O8" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P8" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q8" s="16">
+        <v>44.449999999999996</v>
+      </c>
+      <c r="O8" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P8" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q8" s="12">
         <f>(N8-O8)/P8</f>
-        <v>-0.52990712807056173</v>
-      </c>
-      <c r="R8" s="6" t="str" cm="1">
+        <v>-0.61146486267365974</v>
+      </c>
+      <c r="R8" s="13" t="str" cm="1">
         <f t="array" ref="R8">_xlfn.LET(
   _xlpm.s, N8,
   _xlpm.mean, O8,
@@ -1010,60 +1009,60 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1">
+      <c r="A9" s="14">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11">
-        <v>5</v>
-      </c>
-      <c r="E9" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="F9" s="8">
-        <v>5</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="D9" s="16">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16">
+        <v>5</v>
+      </c>
+      <c r="F9" s="16">
+        <v>5</v>
+      </c>
+      <c r="G9" s="16">
         <v>16.8</v>
       </c>
-      <c r="H9" s="8">
-        <v>5</v>
-      </c>
-      <c r="I9" s="11">
-        <v>5</v>
-      </c>
-      <c r="J9" s="11">
-        <v>5</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="H9" s="16">
+        <v>5</v>
+      </c>
+      <c r="I9" s="16">
+        <v>5</v>
+      </c>
+      <c r="J9" s="16">
+        <v>5</v>
+      </c>
+      <c r="K9" s="16">
         <v>7</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="16">
         <v>20.8</v>
       </c>
-      <c r="M9" s="10">
-        <v>5</v>
-      </c>
-      <c r="N9" s="9">
+      <c r="M9" s="17">
+        <v>5</v>
+      </c>
+      <c r="N9" s="18">
         <f t="shared" ref="N9:N26" si="0">SUM(D9:M9)</f>
-        <v>79.099999999999994</v>
-      </c>
-      <c r="O9" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P9" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q9" s="9">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="O9" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P9" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q9" s="18">
         <f>(N9-O9)/P9</f>
-        <v>1.673674900724849</v>
-      </c>
-      <c r="R9" s="6" t="str" cm="1">
+        <v>1.5935395030747392</v>
+      </c>
+      <c r="R9" s="13" t="str" cm="1">
         <f t="array" ref="R9">_xlfn.LET(
   _xlpm.s, N9,
   _xlpm.mean, O9,
@@ -1087,60 +1086,60 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1">
+      <c r="A10" s="14">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11">
-        <v>5</v>
-      </c>
-      <c r="E10" s="11">
-        <v>4</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="D10" s="16">
+        <v>5</v>
+      </c>
+      <c r="E10" s="16">
+        <v>5</v>
+      </c>
+      <c r="F10" s="16">
         <v>1.8</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="16">
         <v>14.7</v>
       </c>
-      <c r="H10" s="8">
-        <v>5</v>
-      </c>
-      <c r="I10" s="11">
-        <v>5</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="H10" s="16">
+        <v>5</v>
+      </c>
+      <c r="I10" s="16">
+        <v>5</v>
+      </c>
+      <c r="J10" s="16">
+        <v>5</v>
+      </c>
+      <c r="K10" s="16">
         <v>2.9</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="16">
         <v>13.8</v>
       </c>
-      <c r="M10" s="10">
-        <v>5</v>
-      </c>
-      <c r="N10" s="9">
+      <c r="M10" s="17">
+        <v>5</v>
+      </c>
+      <c r="N10" s="18">
         <f t="shared" si="0"/>
-        <v>57.2</v>
-      </c>
-      <c r="O10" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P10" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q10" s="9">
+        <v>63.2</v>
+      </c>
+      <c r="O10" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P10" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q10" s="18">
         <f>(N10-O10)/P10</f>
-        <v>0.35693693536006105</v>
-      </c>
-      <c r="R10" s="6" t="str" cm="1">
+        <v>0.56474656998018091</v>
+      </c>
+      <c r="R10" s="13" t="str" cm="1">
         <f t="array" ref="R10">_xlfn.LET(
   _xlpm.s, N10,
   _xlpm.mean, O10,
@@ -1164,60 +1163,60 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1">
+      <c r="A11" s="14">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11">
-        <v>5</v>
-      </c>
-      <c r="E11" s="11">
-        <v>5</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="D11" s="16">
+        <v>5</v>
+      </c>
+      <c r="E11" s="16">
+        <v>5</v>
+      </c>
+      <c r="F11" s="16">
         <v>5.55</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="16">
         <v>12.15</v>
       </c>
-      <c r="H11" s="8">
-        <v>5</v>
-      </c>
-      <c r="I11" s="11">
-        <v>5</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="H11" s="16">
+        <v>5</v>
+      </c>
+      <c r="I11" s="16">
+        <v>5</v>
+      </c>
+      <c r="J11" s="16">
         <v>0</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="16">
         <v>5.8</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="16">
         <v>16.899999999999999</v>
       </c>
-      <c r="M11" s="10">
-        <v>5</v>
-      </c>
-      <c r="N11" s="9">
+      <c r="M11" s="17">
+        <v>5</v>
+      </c>
+      <c r="N11" s="18">
         <f t="shared" si="0"/>
         <v>65.400000000000006</v>
       </c>
-      <c r="O11" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P11" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q11" s="9">
+      <c r="O11" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P11" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q11" s="18">
         <f>(N11-O11)/P11</f>
-        <v>0.84996210960623764</v>
-      </c>
-      <c r="R11" s="6" t="str" cm="1">
+        <v>0.70275537807823174</v>
+      </c>
+      <c r="R11" s="13" t="str" cm="1">
         <f t="array" ref="R11">_xlfn.LET(
   _xlpm.s, N11,
   _xlpm.mean, O11,
@@ -1241,60 +1240,60 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="14">
+        <v>5</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11">
-        <v>5</v>
-      </c>
-      <c r="E12" s="11">
-        <v>3</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="D12" s="16">
+        <v>5</v>
+      </c>
+      <c r="E12" s="16">
+        <v>5</v>
+      </c>
+      <c r="F12" s="16">
         <v>1.5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="16">
         <v>10</v>
       </c>
-      <c r="H12" s="8">
-        <v>5</v>
-      </c>
-      <c r="I12" s="11">
-        <v>5</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
+      <c r="H12" s="16">
+        <v>5</v>
+      </c>
+      <c r="I12" s="16">
+        <v>5</v>
+      </c>
+      <c r="J12" s="16">
+        <v>5</v>
+      </c>
+      <c r="K12" s="16">
         <v>2.95</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="16">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M12" s="10">
-        <v>5</v>
-      </c>
-      <c r="N12" s="9">
+      <c r="M12" s="17">
+        <v>5</v>
+      </c>
+      <c r="N12" s="18">
         <f t="shared" si="0"/>
-        <v>46.650000000000006</v>
-      </c>
-      <c r="O12" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P12" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q12" s="9">
+        <v>53.650000000000006</v>
+      </c>
+      <c r="O12" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P12" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q12" s="18">
         <f t="shared" ref="Q12:Q26" si="1">(N12-O12)/P12</f>
-        <v>-0.27738203882251949</v>
-      </c>
-      <c r="R12" s="6" t="str" cm="1">
+        <v>-3.4337119718174818E-2</v>
+      </c>
+      <c r="R12" s="13" t="str" cm="1">
         <f t="array" ref="R12">_xlfn.LET(
   _xlpm.s, N12,
   _xlpm.mean, O12,
@@ -1318,60 +1317,60 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1">
+      <c r="A13" s="14">
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11">
-        <v>5</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="D13" s="16">
+        <v>5</v>
+      </c>
+      <c r="E13" s="16">
+        <v>5</v>
+      </c>
+      <c r="F13" s="16">
         <v>1.9</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="16">
         <v>13.6</v>
       </c>
-      <c r="H13" s="8">
-        <v>5</v>
-      </c>
-      <c r="I13" s="11">
-        <v>5</v>
-      </c>
-      <c r="J13" s="11">
-        <v>5</v>
-      </c>
-      <c r="K13" s="8">
+      <c r="H13" s="16">
+        <v>5</v>
+      </c>
+      <c r="I13" s="16">
+        <v>5</v>
+      </c>
+      <c r="J13" s="16">
+        <v>5</v>
+      </c>
+      <c r="K13" s="16">
         <v>4</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="16">
         <v>14.7</v>
       </c>
-      <c r="M13" s="10">
-        <v>5</v>
-      </c>
-      <c r="N13" s="9">
+      <c r="M13" s="17">
+        <v>5</v>
+      </c>
+      <c r="N13" s="18">
         <f t="shared" si="0"/>
-        <v>61.7</v>
-      </c>
-      <c r="O13" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P13" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q13" s="9">
+        <v>64.2</v>
+      </c>
+      <c r="O13" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P13" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q13" s="18">
         <f t="shared" si="1"/>
-        <v>0.62749953098296274</v>
-      </c>
-      <c r="R13" s="6" t="str" cm="1">
+        <v>0.62747784638838577</v>
+      </c>
+      <c r="R13" s="13" t="str" cm="1">
         <f t="array" ref="R13">_xlfn.LET(
   _xlpm.s, N13,
   _xlpm.mean, O13,
@@ -1395,60 +1394,60 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1">
+      <c r="A14" s="14">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="11">
-        <v>5</v>
-      </c>
-      <c r="E14" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="D14" s="16">
+        <v>5</v>
+      </c>
+      <c r="E14" s="16">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16">
         <v>1.4</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="16">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H14" s="8">
-        <v>5</v>
-      </c>
-      <c r="I14" s="11">
-        <v>5</v>
-      </c>
-      <c r="J14" s="11">
-        <v>5</v>
-      </c>
-      <c r="K14" s="8">
+      <c r="H14" s="16">
+        <v>5</v>
+      </c>
+      <c r="I14" s="16">
+        <v>5</v>
+      </c>
+      <c r="J14" s="16">
+        <v>5</v>
+      </c>
+      <c r="K14" s="16">
         <v>3.4</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="16">
         <v>11.3</v>
       </c>
-      <c r="M14" s="10">
-        <v>5</v>
-      </c>
-      <c r="N14" s="9">
+      <c r="M14" s="17">
+        <v>5</v>
+      </c>
+      <c r="N14" s="18">
         <f t="shared" si="0"/>
-        <v>52.900000000000006</v>
-      </c>
-      <c r="O14" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P14" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q14" s="9">
+        <v>53.400000000000006</v>
+      </c>
+      <c r="O14" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P14" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q14" s="18">
         <f t="shared" si="1"/>
-        <v>9.8399343987066221E-2</v>
-      </c>
-      <c r="R14" s="6" t="str" cm="1">
+        <v>-5.0019938820226019E-2</v>
+      </c>
+      <c r="R14" s="13" t="str" cm="1">
         <f t="array" ref="R14">_xlfn.LET(
   _xlpm.s, N14,
   _xlpm.mean, O14,
@@ -1468,64 +1467,64 @@
     TRUE, _xlpm.base
   )
 )</f>
-        <v>B</v>
+        <v>C+</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1">
+      <c r="A15" s="14">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="11">
-        <v>5</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="D15" s="16">
+        <v>5</v>
+      </c>
+      <c r="E15" s="16">
+        <v>5</v>
+      </c>
+      <c r="F15" s="16">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="16">
         <v>7</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="16">
         <v>4.2</v>
       </c>
-      <c r="I15" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
+      <c r="I15" s="16">
+        <v>5</v>
+      </c>
+      <c r="J15" s="16">
+        <v>5</v>
+      </c>
+      <c r="K15" s="16">
         <v>2.6</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="16">
         <v>7.3</v>
       </c>
-      <c r="M15" s="10">
-        <v>5</v>
-      </c>
-      <c r="N15" s="9">
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+      <c r="N15" s="18">
         <f t="shared" si="0"/>
-        <v>38.049999999999997</v>
-      </c>
-      <c r="O15" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P15" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q15" s="9">
+        <v>48.55</v>
+      </c>
+      <c r="O15" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P15" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q15" s="18">
         <f t="shared" si="1"/>
-        <v>-0.79445722156850995</v>
-      </c>
-      <c r="R15" s="6" t="str" cm="1">
+        <v>-0.35426662940001991</v>
+      </c>
+      <c r="R15" s="13" t="str" cm="1">
         <f t="array" ref="R15">_xlfn.LET(
   _xlpm.s, N15,
   _xlpm.mean, O15,
@@ -1549,60 +1548,60 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1">
+      <c r="A16" s="14">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="11">
-        <v>5</v>
-      </c>
-      <c r="E16" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="D16" s="16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="16">
         <v>4</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="16">
         <v>16.45</v>
       </c>
-      <c r="H16" s="8">
-        <v>5</v>
-      </c>
-      <c r="I16" s="11">
-        <v>5</v>
-      </c>
-      <c r="J16" s="11">
-        <v>5</v>
-      </c>
-      <c r="K16" s="8">
+      <c r="H16" s="16">
+        <v>5</v>
+      </c>
+      <c r="I16" s="16">
+        <v>5</v>
+      </c>
+      <c r="J16" s="16">
+        <v>5</v>
+      </c>
+      <c r="K16" s="16">
         <v>2.0499999999999998</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="16">
         <v>16.399999999999999</v>
       </c>
-      <c r="M16" s="10">
-        <v>5</v>
-      </c>
-      <c r="N16" s="9">
+      <c r="M16" s="17">
+        <v>5</v>
+      </c>
+      <c r="N16" s="18">
         <f t="shared" si="0"/>
-        <v>66.400000000000006</v>
-      </c>
-      <c r="O16" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P16" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q16" s="9">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="O16" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P16" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q16" s="18">
         <f t="shared" si="1"/>
-        <v>0.91008713085577142</v>
-      </c>
-      <c r="R16" s="6" t="str" cm="1">
+        <v>0.92231484550694853</v>
+      </c>
+      <c r="R16" s="13" t="str" cm="1">
         <f t="array" ref="R16">_xlfn.LET(
   _xlpm.s, N16,
   _xlpm.mean, O16,
@@ -1626,60 +1625,60 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1">
+      <c r="A17" s="14">
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="11">
-        <v>5</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="D17" s="16">
+        <v>5</v>
+      </c>
+      <c r="E17" s="16">
+        <v>5</v>
+      </c>
+      <c r="F17" s="16">
         <v>3.65</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="16">
         <v>17</v>
       </c>
-      <c r="H17" s="8">
-        <v>5</v>
-      </c>
-      <c r="I17" s="11">
-        <v>5</v>
-      </c>
-      <c r="J17" s="11">
-        <v>5</v>
-      </c>
-      <c r="K17" s="8">
+      <c r="H17" s="16">
+        <v>5</v>
+      </c>
+      <c r="I17" s="16">
+        <v>5</v>
+      </c>
+      <c r="J17" s="16">
+        <v>5</v>
+      </c>
+      <c r="K17" s="16">
         <v>5.3</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="16">
         <v>18.3</v>
       </c>
-      <c r="M17" s="10">
-        <v>5</v>
-      </c>
-      <c r="N17" s="9">
+      <c r="M17" s="17">
+        <v>5</v>
+      </c>
+      <c r="N17" s="18">
         <f t="shared" si="0"/>
-        <v>71.25</v>
-      </c>
-      <c r="O17" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P17" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q17" s="9">
+        <v>74.25</v>
+      </c>
+      <c r="O17" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P17" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q17" s="18">
         <f t="shared" si="1"/>
-        <v>1.2016934839160096</v>
-      </c>
-      <c r="R17" s="6" t="str" cm="1">
+        <v>1.257927174290844</v>
+      </c>
+      <c r="R17" s="13" t="str" cm="1">
         <f t="array" ref="R17">_xlfn.LET(
   _xlpm.s, N17,
   _xlpm.mean, O17,
@@ -1703,60 +1702,60 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1">
+      <c r="A18" s="14">
         <v>11</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11">
-        <v>4.375</v>
-      </c>
-      <c r="E18" s="11">
+      <c r="D18" s="16">
+        <v>5</v>
+      </c>
+      <c r="E18" s="16">
+        <v>3</v>
+      </c>
+      <c r="F18" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G18" s="16">
+        <v>5.3</v>
+      </c>
+      <c r="H18" s="16">
+        <v>5</v>
+      </c>
+      <c r="I18" s="16">
+        <v>3</v>
+      </c>
+      <c r="J18" s="16">
         <v>0</v>
       </c>
-      <c r="F18" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G18" s="8">
-        <v>5.3</v>
-      </c>
-      <c r="H18" s="8">
-        <v>5</v>
-      </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
+      <c r="K18" s="16">
         <v>1</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="16">
         <v>3</v>
       </c>
-      <c r="M18" s="10">
-        <v>5</v>
-      </c>
-      <c r="N18" s="9">
+      <c r="M18" s="17">
+        <v>5</v>
+      </c>
+      <c r="N18" s="18">
         <f>SUM(D18:M18)</f>
-        <v>25.875</v>
-      </c>
-      <c r="O18" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P18" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q18" s="9">
+        <v>32.5</v>
+      </c>
+      <c r="O18" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P18" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q18" s="18">
         <f t="shared" si="1"/>
-        <v>-1.5264793552815827</v>
-      </c>
-      <c r="R18" s="6" t="str" cm="1">
+        <v>-1.3611036157517069</v>
+      </c>
+      <c r="R18" s="13" t="str" cm="1">
         <f t="array" ref="R18">_xlfn.LET(
   _xlpm.s, N18,
   _xlpm.mean, O18,
@@ -1776,64 +1775,64 @@
     TRUE, _xlpm.base
   )
 )</f>
-        <v>F</v>
+        <v>D</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1">
+      <c r="A19" s="14">
         <v>12</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="11">
-        <v>5</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="D19" s="16">
+        <v>5</v>
+      </c>
+      <c r="E19" s="16">
         <v>2.5</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="16">
         <v>2.1</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="16">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="16">
         <v>4.2</v>
       </c>
-      <c r="I19" s="11">
-        <v>5</v>
-      </c>
-      <c r="J19" s="11">
+      <c r="I19" s="16">
+        <v>4</v>
+      </c>
+      <c r="J19" s="16">
         <v>0</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="16">
         <v>2.75</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="16">
         <v>11</v>
       </c>
-      <c r="M19" s="10">
-        <v>5</v>
-      </c>
-      <c r="N19" s="9">
+      <c r="M19" s="17">
+        <v>5</v>
+      </c>
+      <c r="N19" s="18">
         <f t="shared" si="0"/>
-        <v>46.349999999999994</v>
-      </c>
-      <c r="O19" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P19" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q19" s="9">
+        <v>45.349999999999994</v>
+      </c>
+      <c r="O19" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P19" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q19" s="18">
         <f t="shared" si="1"/>
-        <v>-0.29541954519738034</v>
-      </c>
-      <c r="R19" s="6" t="str" cm="1">
+        <v>-0.55500671390627543</v>
+      </c>
+      <c r="R19" s="13" t="str" cm="1">
         <f t="array" ref="R19">_xlfn.LET(
   _xlpm.s, N19,
   _xlpm.mean, O19,
@@ -1853,64 +1852,64 @@
     TRUE, _xlpm.base
   )
 )</f>
-        <v>C+</v>
+        <v>C</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1">
+      <c r="A20" s="14">
         <v>13</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="11">
-        <v>5</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="D20" s="16">
+        <v>5</v>
+      </c>
+      <c r="E20" s="16">
         <v>4.5</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="16">
         <v>5.2</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="16">
         <v>13.65</v>
       </c>
-      <c r="H20" s="8">
-        <v>5</v>
-      </c>
-      <c r="I20" s="11">
-        <v>5</v>
-      </c>
-      <c r="J20" s="11">
-        <v>5</v>
-      </c>
-      <c r="K20" s="8">
+      <c r="H20" s="16">
+        <v>5</v>
+      </c>
+      <c r="I20" s="16">
+        <v>5</v>
+      </c>
+      <c r="J20" s="16">
+        <v>5</v>
+      </c>
+      <c r="K20" s="16">
         <v>6.1</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="16">
         <v>17.100000000000001</v>
       </c>
-      <c r="M20" s="10">
-        <v>5</v>
-      </c>
-      <c r="N20" s="9">
+      <c r="M20" s="17">
+        <v>5</v>
+      </c>
+      <c r="N20" s="18">
         <f t="shared" si="0"/>
         <v>71.550000000000011</v>
       </c>
-      <c r="O20" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P20" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q20" s="9">
+      <c r="O20" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P20" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q20" s="18">
         <f t="shared" si="1"/>
-        <v>1.2197309902908704</v>
-      </c>
-      <c r="R20" s="6" t="str" cm="1">
+        <v>1.0885527279886917</v>
+      </c>
+      <c r="R20" s="13" t="str" cm="1">
         <f t="array" ref="R20">_xlfn.LET(
   _xlpm.s, N20,
   _xlpm.mean, O20,
@@ -1934,60 +1933,60 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1">
+      <c r="A21" s="14">
         <v>14</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="11">
-        <v>5</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="D21" s="16">
+        <v>5</v>
+      </c>
+      <c r="E21" s="16">
+        <v>5</v>
+      </c>
+      <c r="F21" s="16">
         <v>1.7</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="16">
         <v>11.35</v>
       </c>
-      <c r="H21" s="8">
-        <v>5</v>
-      </c>
-      <c r="I21" s="11">
-        <v>5</v>
-      </c>
-      <c r="J21" s="11">
-        <v>5</v>
-      </c>
-      <c r="K21" s="8">
+      <c r="H21" s="16">
+        <v>5</v>
+      </c>
+      <c r="I21" s="16">
+        <v>5</v>
+      </c>
+      <c r="J21" s="16">
+        <v>5</v>
+      </c>
+      <c r="K21" s="16">
         <v>3.5</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="16">
         <v>5.2</v>
       </c>
-      <c r="M21" s="10">
-        <v>5</v>
-      </c>
-      <c r="N21" s="9">
+      <c r="M21" s="17">
+        <v>5</v>
+      </c>
+      <c r="N21" s="18">
         <f t="shared" si="0"/>
-        <v>46.75</v>
-      </c>
-      <c r="O21" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P21" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q21" s="9">
+        <v>51.75</v>
+      </c>
+      <c r="O21" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P21" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q21" s="18">
         <f t="shared" si="1"/>
-        <v>-0.27136953669756647</v>
-      </c>
-      <c r="R21" s="6" t="str" cm="1">
+        <v>-0.1535265448937643</v>
+      </c>
+      <c r="R21" s="13" t="str" cm="1">
         <f t="array" ref="R21">_xlfn.LET(
   _xlpm.s, N21,
   _xlpm.mean, O21,
@@ -2011,60 +2010,60 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1">
+      <c r="A22" s="14">
         <v>15</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="11">
-        <v>4.38</v>
-      </c>
-      <c r="E22" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="D22" s="16">
+        <v>5</v>
+      </c>
+      <c r="E22" s="16">
+        <v>3</v>
+      </c>
+      <c r="F22" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="16">
         <v>3.5</v>
       </c>
-      <c r="H22" s="8">
-        <v>5</v>
-      </c>
-      <c r="I22" s="11">
-        <v>4</v>
-      </c>
-      <c r="J22" s="11">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8">
+      <c r="H22" s="16">
+        <v>5</v>
+      </c>
+      <c r="I22" s="16">
+        <v>5</v>
+      </c>
+      <c r="J22" s="16">
+        <v>5</v>
+      </c>
+      <c r="K22" s="16">
         <v>3.3</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="16">
         <v>5.8</v>
       </c>
-      <c r="M22" s="10">
-        <v>5</v>
-      </c>
-      <c r="N22" s="9">
+      <c r="M22" s="17">
+        <v>5</v>
+      </c>
+      <c r="N22" s="18">
         <f t="shared" si="0"/>
-        <v>35.78</v>
-      </c>
-      <c r="O22" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P22" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q22" s="9">
+        <v>42.9</v>
+      </c>
+      <c r="O22" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P22" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q22" s="18">
         <f t="shared" si="1"/>
-        <v>-0.93094101980495125</v>
-      </c>
-      <c r="R22" s="6" t="str" cm="1">
+        <v>-0.70869834110637697</v>
+      </c>
+      <c r="R22" s="13" t="str" cm="1">
         <f t="array" ref="R22">_xlfn.LET(
   _xlpm.s, N22,
   _xlpm.mean, O22,
@@ -2088,60 +2087,60 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1">
+      <c r="A23" s="14">
         <v>16</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="11">
-        <v>5</v>
-      </c>
-      <c r="E23" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="D23" s="16">
+        <v>5</v>
+      </c>
+      <c r="E23" s="16">
+        <v>3</v>
+      </c>
+      <c r="F23" s="16">
         <v>2.35</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="16">
         <v>17.8</v>
       </c>
-      <c r="H23" s="8">
-        <v>5</v>
-      </c>
-      <c r="I23" s="11">
-        <v>5</v>
-      </c>
-      <c r="J23" s="11">
+      <c r="H23" s="16">
+        <v>5</v>
+      </c>
+      <c r="I23" s="16">
+        <v>5</v>
+      </c>
+      <c r="J23" s="16">
         <v>0</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="16">
         <v>6.5250000000000004</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="16">
         <v>15.2</v>
       </c>
-      <c r="M23" s="10">
-        <v>5</v>
-      </c>
-      <c r="N23" s="9">
+      <c r="M23" s="17">
+        <v>5</v>
+      </c>
+      <c r="N23" s="18">
         <f t="shared" si="0"/>
-        <v>64.375</v>
-      </c>
-      <c r="O23" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P23" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q23" s="9">
+        <v>64.875</v>
+      </c>
+      <c r="O23" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P23" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q23" s="18">
         <f t="shared" si="1"/>
-        <v>0.78833396282546531</v>
-      </c>
-      <c r="R23" s="6" t="str" cm="1">
+        <v>0.66982145796392378</v>
+      </c>
+      <c r="R23" s="13" t="str" cm="1">
         <f t="array" ref="R23">_xlfn.LET(
   _xlpm.s, N23,
   _xlpm.mean, O23,
@@ -2165,60 +2164,60 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1">
+      <c r="A24" s="14">
         <v>17</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="11">
-        <v>5</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="D24" s="16">
+        <v>5</v>
+      </c>
+      <c r="E24" s="16">
+        <v>3</v>
+      </c>
+      <c r="F24" s="16">
         <v>1.8</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="16">
         <v>11.4</v>
       </c>
-      <c r="H24" s="8">
-        <v>5</v>
-      </c>
-      <c r="I24" s="11">
+      <c r="H24" s="16">
+        <v>5</v>
+      </c>
+      <c r="I24" s="16">
         <v>4.5</v>
       </c>
-      <c r="J24" s="11">
-        <v>5</v>
-      </c>
-      <c r="K24" s="8">
+      <c r="J24" s="16">
+        <v>5</v>
+      </c>
+      <c r="K24" s="16">
         <v>1.4</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="16">
         <v>10.95</v>
       </c>
-      <c r="M24" s="10">
-        <v>5</v>
-      </c>
-      <c r="N24" s="9">
+      <c r="M24" s="17">
+        <v>5</v>
+      </c>
+      <c r="N24" s="18">
         <f t="shared" si="0"/>
-        <v>50.05</v>
-      </c>
-      <c r="O24" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P24" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q24" s="9">
+        <v>53.05</v>
+      </c>
+      <c r="O24" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P24" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q24" s="18">
         <f t="shared" si="1"/>
-        <v>-7.2956966574105386E-2</v>
-      </c>
-      <c r="R24" s="6" t="str" cm="1">
+        <v>-7.1975885563098238E-2</v>
+      </c>
+      <c r="R24" s="13" t="str" cm="1">
         <f t="array" ref="R24">_xlfn.LET(
   _xlpm.s, N24,
   _xlpm.mean, O24,
@@ -2242,60 +2241,60 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1">
+      <c r="A25" s="14">
         <v>18</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="16">
         <v>0.625</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="16">
         <v>0</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="16">
         <v>2.15</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="16">
         <v>3.3</v>
       </c>
-      <c r="H25" s="8">
-        <v>5</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="H25" s="16">
+        <v>5</v>
+      </c>
+      <c r="I25" s="16">
         <v>0</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="16">
         <v>0</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="16">
         <v>0</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="16">
         <v>0</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="17">
         <v>0</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="18">
         <f t="shared" si="0"/>
         <v>11.074999999999999</v>
       </c>
-      <c r="O25" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P25" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q25" s="9">
+      <c r="O25" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P25" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q25" s="18">
         <f t="shared" si="1"/>
-        <v>-2.4163296697746821</v>
-      </c>
-      <c r="R25" s="6" t="str" cm="1">
+        <v>-2.7051212127974948</v>
+      </c>
+      <c r="R25" s="13" t="str" cm="1">
         <f t="array" ref="R25">_xlfn.LET(
   _xlpm.s, N25,
   _xlpm.mean, O25,
@@ -2319,60 +2318,60 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1">
+      <c r="A26" s="14">
         <v>19</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="11">
-        <v>5</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="D26" s="16">
+        <v>5</v>
+      </c>
+      <c r="E26" s="16">
         <v>2.5</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="16">
         <v>1.55</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="16">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H26" s="8">
-        <v>5</v>
-      </c>
-      <c r="I26" s="11">
+      <c r="H26" s="16">
+        <v>5</v>
+      </c>
+      <c r="I26" s="16">
         <v>4.5</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="16">
         <v>0</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="16">
         <v>2.0499999999999998</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="16">
         <v>6.8</v>
       </c>
-      <c r="M26" s="10">
-        <v>5</v>
-      </c>
-      <c r="N26" s="9">
+      <c r="M26" s="17">
+        <v>5</v>
+      </c>
+      <c r="N26" s="18">
         <f t="shared" si="0"/>
         <v>41.1</v>
       </c>
-      <c r="O26" s="16">
-        <v>51.263421052631578</v>
-      </c>
-      <c r="P26" s="16">
-        <v>16.632010753888178</v>
-      </c>
-      <c r="Q26" s="9">
+      <c r="O26" s="12">
+        <v>54.19736842105263</v>
+      </c>
+      <c r="P26" s="12">
+        <v>15.94101152179341</v>
+      </c>
+      <c r="Q26" s="18">
         <f t="shared" si="1"/>
-        <v>-0.61107590675743195</v>
-      </c>
-      <c r="R26" s="6" t="str" cm="1">
+        <v>-0.82161463864114548</v>
+      </c>
+      <c r="R26" s="13" t="str" cm="1">
         <f t="array" ref="R26">_xlfn.LET(
   _xlpm.s, N26,
   _xlpm.mean, O26,
@@ -2396,38 +2395,45 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="6" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="5">
         <f>AVERAGE(N8:N26)</f>
-        <v>51.263421052631578</v>
+        <v>54.19736842105263</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="5">
         <f>_xlfn.STDEV.P(N8:N26)</f>
-        <v>16.632010753888178</v>
+        <v>15.94101152179341</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="14">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="A5:A7"/>
@@ -2435,13 +2441,6 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:H6"/>
     <mergeCell ref="I5:M6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
